--- a/frontend-cemos/public/assets/content/direito/1-ema-135/script/fc3.xlsx
+++ b/frontend-cemos/public/assets/content/direito/1-ema-135/script/fc3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,18 +473,18 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>O que a CNUDM exige de todos os Estados em relação às transmissões não autorizadas a partir do alto-mar?</t>
+          <t>Qual é a obrigação fundamental de todo marinheiro em relação a pessoas em perigo no mar, segundo costumes antigos?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Que cooperem na repressão dessas transmissões, excluídas as chamadas de socorro.</t>
+          <t>Prover auxílio às pessoas em perigo no mar, um costume reconhecido desde os primórdios da navegação.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pág 62</t>
+          <t>Pág 49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Quais Estados podem processar alguém por transmissões não autorizadas no alto-mar?</t>
+          <t>O que a CNUDM exige de todos os Estados em relação às transmissões não autorizadas a partir do alto-mar?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>O Estado de bandeira do navio, de registro da instalação, de nacionalidade da pessoa, ou qualquer Estado que receba as transmissões ou sofra interferência.</t>
+          <t>Que cooperem na repressão dessas transmissões, excluídas as chamadas de socorro.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -529,12 +529,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Qual é o direito conferido a um Estado que suspeite de um navio estrangeiro no alto-mar por tráfico ilícito de drogas?</t>
+          <t>Quais Estados podem processar alguém por transmissões não autorizadas no alto-mar?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Notificar o Estado-pavilhão, solicitar a confirmação do registro e, se autorizado, abordar e inspecionar o navio.</t>
+          <t>O Estado de bandeira do navio, de registro da instalação, de nacionalidade da pessoa, ou qualquer Estado que receba as transmissões ou sofra interferência.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -557,18 +557,18 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>O que é recomendado aos comandantes fazerem antes de iniciar ações de imposição da legislação brasileira no mar?</t>
+          <t>Qual é o direito conferido a um Estado que suspeite de um navio estrangeiro no alto-mar por tráfico ilícito de drogas?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Buscar orientação superior, sempre que a situação permitir, devido a possíveis desdobramentos políticos e jurídicos.</t>
+          <t>Notificar o Estado-pavilhão, solicitar a confirmação do registro e, se autorizado, abordar e inspecionar o navio.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pág 63</t>
+          <t>Pág 62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -585,12 +585,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Qual é a regra geral de jurisdição para navios em alto-mar, conforme a CNUDM?</t>
+          <t>O que é recomendado aos comandantes fazerem antes de iniciar ações de imposição da legislação brasileira no mar?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Submetem-se à jurisdição exclusiva do Estado sob cuja bandeira naveguem.</t>
+          <t>Buscar orientação superior, sempre que a situação permitir, devido a possíveis desdobramentos políticos e jurídicos.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -613,12 +613,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Para efeitos penais, como as embarcações mercantes ou de propriedade privada brasileiras em alto-mar são consideradas pelo CPB?</t>
+          <t>Qual é a regra geral de jurisdição para navios em alto-mar, conforme a CNUDM?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Extensão do território nacional (CPB, art. 5º, § 1º).</t>
+          <t>Submetem-se à jurisdição exclusiva do Estado sob cuja bandeira naveguem.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -641,18 +641,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Navios de guerra estrangeiros estão sujeitos à jurisdição local do Estado costeiro no Mar Territorial?</t>
+          <t>Quais os documentos comprobatórios da nacionalidade brasileira de um navio?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Não, eles estão isentos da jurisdição local, mas devem observar as leis e regulamentos do Estado costeiro.</t>
+          <t>**PROVISÃO DE REGISTRO DE PROPRIEDADE MARÍTIMA** – embarcação com arqueação bruta superior a 100 toneladas; ou **TÍTULO DE INCRIÇÃO NA CAPITANIA DOS PORTOS OU ÓRGÃO SUBORDINADO** – embarcação com arqueação bruta inferior a 100 toneladas.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pág 64</t>
+          <t>Pág 63</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -669,18 +669,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Na Zona Contígua (ZC), para quais fins o Estado costeiro pode adotar ações de imposição da legislação contra navios estrangeiros?</t>
+          <t>A Lei nº 7.562/1988, prevê que o documento comprobatório da nacionalidade brasileira  das  embarcações  é  a _______________ ,  se  a embarcação possuir arqueação bruta superior a **cem toneladas**, ou o _______________ ou órgão subordinado, se possuir **menos de cem**.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Para conter infrações às leis alfandegárias, sanitárias, fiscais e de imigração.</t>
+          <t>"Provisão  de  Registro  de  Propriedade  Marítima" e "Título de Inscrição na Capitania dos Portos".</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pág 64</t>
+          <t>Pág 63</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -697,18 +697,18 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Em quais situações o Estado costeiro pode exercer jurisdição penal sobre um navio estrangeiro em passagem inocente no Mar Territorial (MT)?</t>
+          <t>Para efeitos penais, como as embarcações mercantes ou de propriedade privada brasileiras em alto-mar são consideradas pelo CPB?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Se a infração criminal tiver consequências para o Estado costeiro, for prejudicial à paz/ordem, se for solicitada assistência ou se for necessário para repressão do tráfico ilícito de drogas.</t>
+          <t>Extensão do território nacional (CPB, art. 5º, § 1º).</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pág 64</t>
+          <t>Pág 63</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -725,18 +725,18 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Qual é a situação de jurisdição para navios considerados "sem nacionalidade" em águas internacionais?</t>
+          <t>Navios de guerra estrangeiros estão sujeitos à jurisdição local do Estado costeiro no Mar Territorial?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Não usufruem de proteção oficial, estando sujeitos à jurisdição de qualquer Estado.</t>
+          <t>Não, eles estão isentos da jurisdição local, mas devem observar as leis e regulamentos do Estado costeiro.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pág 65</t>
+          <t>Pág 64</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -753,18 +753,18 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cite uma condição que pode fazer um navio ser considerado "assemelhado a navio sem nacionalidade".</t>
+          <t>Na Zona Contígua (ZC), para quais fins o Estado costeiro pode adotar ações de imposição da legislação contra navios estrangeiros?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Apresentar múltiplas alegações de nacionalidade ou trocar de bandeira durante a viagem.</t>
+          <t>Para conter infrações às leis alfandegárias, sanitárias, fiscais e de imigração.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pág 65</t>
+          <t>Pág 64</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -781,18 +781,18 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cite uma das exceções reconhecidas pela CNUDM à jurisdição exclusiva do Estado de bandeira no alto-mar.</t>
+          <t>Em quais situações o Estado costeiro pode exercer jurisdição penal sobre um navio estrangeiro em passagem inocente no Mar Territorial (MT)?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>O direito de perseguição (*hot pursuit*) ou o direito de aproximação e visita.</t>
+          <t>Se a infração criminal tiver consequências para o Estado costeiro, for prejudicial à paz/ordem, se for solicitada assistência ou se for necessário para repressão do tráfico ilícito de drogas.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pág 65</t>
+          <t>Pág 64</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -809,18 +809,18 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Em caso de abalroamento em alto-mar envolvendo um navio de guerra, qual jurisdição é competente?</t>
+          <t>Qual é a situação de jurisdição para navios considerados "sem nacionalidade" em águas internacionais?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A jurisdição do Estado a que pertencer o navio de guerra, em virtude da imunidade de jurisdição.</t>
+          <t>Não usufruem de proteção oficial, estando sujeitos à jurisdição de qualquer Estado.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pág 66</t>
+          <t>Pág 65</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -837,18 +837,18 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>O direito de perseguição (*hot pursuit*) aplica-se a infrações cometidas em quais áreas jurisdicionais do Estado costeiro?</t>
+          <t>Cite uma condição que pode fazer um navio ser considerado "assemelhado a navio sem nacionalidade".</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mar Territorial (MT), Zona Econômica Exclusiva (ZEE) ou Plataforma Continental (PC), incluindo as zonas de segurança.</t>
+          <t>Apresentar múltiplas alegações de nacionalidade ou trocar de bandeira durante a viagem.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pág 66</t>
+          <t>Pág 65</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -865,18 +865,18 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Se a perseguição for iniciada na Zona Contígua (ZC), por qual motivo ela deve ter sido motivada?</t>
+          <t>Cite uma das exceções reconhecidas pela CNUDM à jurisdição exclusiva do Estado de bandeira no alto-mar.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Violação dos direitos para cuja proteção a ZC foi criada.</t>
+          <t>O direito de perseguição (*hot pursuit*) ou o direito de aproximação e visita.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pág 66</t>
+          <t>Pág 65</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -893,18 +893,18 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>A perseguição (*hot pursuit*) deve ser efetuada de forma ininterrupta por quais meios?</t>
+          <t>Em caso de abalroamento em alto-mar envolvendo um navio de guerra, qual jurisdição é competente?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Visualmente ou por meios eletrônicos.</t>
+          <t>A jurisdição do Estado a que pertencer o navio de guerra, em virtude da imunidade de jurisdição.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pág 67</t>
+          <t>Pág 66</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -921,18 +921,18 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>O que é necessário, além da ordem de parar, para justificar o apresamento de um navio fora do MT baseado na perseguição por aeronave?</t>
+          <t>O direito de perseguição (*hot pursuit*) aplica-se a infrações cometidas em quais áreas jurisdicionais do Estado costeiro?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Que a perseguição tenha sido empreendida, sem interrupção, pela própria aeronave ou por outras aeronaves/navios.</t>
+          <t>Mar Territorial (MT), Zona Econômica Exclusiva (ZEE) ou Plataforma Continental (PC), incluindo as zonas de segurança.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pág 67</t>
+          <t>Pág 66</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -949,18 +949,18 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Quando cessa o direito de perseguição (*hot pursuit*)?</t>
+          <t>Se a perseguição for iniciada na Zona Contígua (ZC), por qual motivo ela deve ter sido motivada?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>No momento em que o navio perseguido entra no Mar Territorial (MT) do seu próprio Estado ou no MT de um terceiro Estado.</t>
+          <t>Violação dos direitos para cuja proteção a ZC foi criada.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pág 67</t>
+          <t>Pág 66</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -977,18 +977,18 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>O que a CNUDM prevê caso um navio seja parado ou apresado fora do MT sem justificativa para o exercício do direito de perseguição?</t>
+          <t>A perseguição (*hot pursuit*) deve ser efetuada de forma ininterrupta por quais meios?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Indenização por perdas e danos sofridos.</t>
+          <t>Visualmente ou por meios eletrônicos.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pág 68</t>
+          <t>Pág 67</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1005,18 +1005,18 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Em que tipo de caso a doutrina da "Presença Suspeita" é normalmente empregada?</t>
+          <t>O que é necessário, além da ordem de parar, para justificar o apresamento de um navio fora do MT baseado na perseguição por aeronave?</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Casos envolvendo navio-mãe que utiliza embarcações menores para fazer contrabando em águas de um Estado costeiro.</t>
+          <t>Que a perseguição tenha sido empreendida, sem interrupção, pela própria aeronave ou por outras aeronaves/navios.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pág 68</t>
+          <t>Pág 67</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1033,18 +1033,18 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>O que o Direito Internacional reconhece que um Estado pode autorizar a outro Estado em termos de imposição da legislação?</t>
+          <t>Quando cessa o direito de perseguição (*hot pursuit*)?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Autorizar autoridades de outro Estado a impor a legislação de um ou de ambos em navios ostentando seus pavilhões.</t>
+          <t>No momento em que o navio perseguido entra no Mar Territorial (MT) do seu próprio Estado ou no MT de um terceiro Estado.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Pág 68</t>
+          <t>Pág 67</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1061,18 +1061,18 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>O que caracteriza uma "abordagem consentida"?</t>
+          <t>O que a CNUDM prevê caso um navio seja parado ou apresado fora do MT sem justificativa para o exercício do direito de perseguição?</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Ocorre a convite do comandante de um navio que não está sujeito à jurisdição da autoridade convidada.</t>
+          <t>Indenização por perdas e danos sofridos.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pág 69</t>
+          <t>Pág 68</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1089,18 +1089,18 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>O consentimento voluntário do comandante para a entrada a bordo de autoridade estrangeira autoriza automaticamente o arresto ou confisco?</t>
+          <t>Em que tipo de caso a doutrina da "Presença Suspeita" é normalmente empregada?</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Não.</t>
+          <t>Casos envolvendo navio-mãe que utiliza embarcações menores para fazer contrabando em águas de um Estado costeiro.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pág 69</t>
+          <t>Pág 68</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1117,18 +1117,18 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Por que o embarque consentido de autoridades em um navio é útil?</t>
+          <t>O que o Direito Internacional reconhece que um Estado pode autorizar a outro Estado em termos de imposição da legislação?</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Permite uma rápida verificação dos aspectos legais (documentos, carga e registros de navegação) sem provocar atrasos indevidos.</t>
+          <t>Autorizar autoridades de outro Estado a impor a legislação de um ou de ambos em navios ostentando seus pavilhões.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Pág 69</t>
+          <t>Pág 68</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1145,18 +1145,18 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>O que envolve a proteção de pessoas e bens no mar, em termos de normas?</t>
+          <t>O que caracteriza uma "abordagem consentida"?</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Inúmeras normas nacionais e internacionais.</t>
+          <t>Ocorre a convite do comandante de um navio que não está sujeito à jurisdição da autoridade convidada.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Pág 49</t>
+          <t>Pág 69</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1173,18 +1173,18 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>O que é recomendado ao comandante na cena de ação fazer, em caso de situação não contemplada pelas Regras de Engajamento?</t>
+          <t>O consentimento voluntário do comandante para a entrada a bordo de autoridade estrangeira autoriza automaticamente o arresto ou confisco?</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Reportar imediatamente ao escalão superior e, se possível, aguardar orientação antes de empregar a força.</t>
+          <t>Não.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Pág 49</t>
+          <t>Pág 69</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1201,18 +1201,18 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Qual é o direito costumeiro internacional de um navio em busca de abrigo em porto, em tempo de paz?</t>
+          <t>Por que o embarque consentido de autoridades em um navio é útil?</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Entrar e permanecer em um porto abrigado, sem penalidades, face aos perigos do mar ou força maior.</t>
+          <t>Permite uma rápida verificação dos aspectos legais (documentos, carga e registros de navegação) sem provocar atrasos indevidos.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Pág 49</t>
+          <t>Pág 69</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1229,18 +1229,18 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>De acordo com a CNUDM (art. 98), qual é a obrigação do comandante de um navio de bandeira em relação a pessoas em perigo no mar?</t>
+          <t>O que envolve a proteção de pessoas e bens no mar, em termos de normas?</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Prestar assistência a qualquer pessoa em perigo de desaparecer, desde que não incorra em sérios riscos para o navio, tripulação ou passageiros.</t>
+          <t>Inúmeras normas nacionais e internacionais.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Pág 50</t>
+          <t>Pág 49</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1257,18 +1257,18 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>O que a Convenção SAR estabelece sobre a prestação de auxílio a pessoas em perigo no mar?</t>
+          <t>O que é recomendado ao comandante na cena de ação fazer, em caso de situação não contemplada pelas Regras de Engajamento?</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Que seja prestado auxílio a qualquer pessoa em perigo, independentemente da nacionalidade, condição social ou situação em que se encontra.</t>
+          <t>Reportar imediatamente ao escalão superior e, se possível, aguardar orientação antes de empregar a força.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Pág 50</t>
+          <t>Pág 49</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1285,18 +1285,18 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Qual a obrigação da OGSA para Comandantes de navios da MB em relação a sinistros em embarcações mercantes?</t>
+          <t>Qual é o direito costumeiro internacional de um navio em busca de abrigo em porto, em tempo de paz?</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Prestar auxílio às embarcações mercantes em perigo e tripulações e passageiros vitimados por qualquer sinistro.</t>
+          <t>Entrar e permanecer em um porto abrigado, sem penalidades, face aos perigos do mar ou força maior.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Pág 50</t>
+          <t>Pág 49</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1313,18 +1313,18 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Qual é o dever do comandante da MB em relação a tripulantes e passageiros salvos?</t>
+          <t>De acordo com a CNUDM (art. 98), qual é a obrigação do comandante de um navio de bandeira em relação a pessoas em perigo no mar?</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Salvar e recolher a bordo e transportá-los até o porto a que se destinar o navio ou a Força.</t>
+          <t>Prestar assistência a qualquer pessoa em perigo de desaparecer, desde que não incorra em sérios riscos para o navio, tripulação ou passageiros.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Pág 51</t>
+          <t>Pág 50</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1341,18 +1341,18 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Qual é a condição para que um navio de guerra preste socorro, em razão do dever humanitário?</t>
+          <t>Segundo a Convenção SOLAS (Capítulo V, Regra 33), qual é a obrigação do comandante de um navio que recebe um sinal de perigo no mar?</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Desde que não sejam colocados em sérios riscos o próprio navio, a sua tripulação ou a sua missão.</t>
+          <t>Ele é obrigado a se dirigir prontamente ao auxílio das pessoas em perigo, se estiver em posição de prestar assistência.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Pág 51</t>
+          <t>Pág 50</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1369,18 +1369,18 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Em que casos o parar e o fundear são permitidos durante a passagem inocente no MT?</t>
+          <t>O que a Convenção SAR estabelece sobre a prestação de auxílio a pessoas em perigo no mar?</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Se constituírem incidentes comuns de navegação, forem impostos por força maior, ou tiverem por fim prestar auxílio a pessoas, navios ou aeronaves em perigo.</t>
+          <t>Que seja prestado auxílio a qualquer pessoa em perigo, independentemente da nacionalidade, condição social ou situação em que se encontra.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Pág 51</t>
+          <t>Pág 50</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1397,18 +1397,18 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>A embarcação que demanda porto em emergência fica sujeita a regulamentações locais concernentes a penalidades ou taxas?</t>
+          <t>Segundo a OGSA, qual é o dever dos Comandantes de navios da Marinha do Brasil (MB) em relação a embarcações mercantes em perigo?</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Não, em geral, não ficará sujeita às regulamentações locais concernentes a penalidades, proibições, serviços ou taxas por tê-lo demandado.</t>
+          <t>Que seja prestado auxílio a qualquer pessoa em perigo, independentemente da nacionalidade, condição social ou situação em que se encontra.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Pág 52</t>
+          <t>Pág 50</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1425,18 +1425,18 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cite uma medida que a LESTA permite ordenar a uma embarcação estrangeira que represente ameaça de danos (documentação ou condições precárias).</t>
+          <t>Qual a obrigação da OGSA para Comandantes de navios da MB em relação a sinistros em embarcações mercantes?</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Não entrar no porto, não sair do porto, sair das águas jurisdicionais, ou arribar em porto nacional.</t>
+          <t>Prestar auxílio às embarcações mercantes em perigo e às suas tripulações e passageiros vitimados por qualquer sinistro.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Pág 52</t>
+          <t>Pág 50</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1453,18 +1453,18 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Em caso de quarentena, navios militares devem permitir a inspeção pelas autoridades sanitárias?</t>
+          <t>Qual é o dever do comandante da MB em relação a tripulantes e passageiros salvos?</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Não devem permitir a inspeção, mas devem sujeitar-se às regulamentações e prestar todas as informações solicitadas.</t>
+          <t>Salvar e recolher a bordo e transportá-los até o porto a que se destinar o navio ou a Força.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Pág 52</t>
+          <t>Pág 51</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1481,18 +1481,18 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Qual sua principal distinção entre asilo territorial e asilo diplomático?</t>
+          <t>Qual é a condição para que um navio de guerra preste socorro, em razão do dever humanitário?</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Asilo territorial é a proteção dada por um Estado em seu território a um perseguido político, e não deve ser confundido com o asilo diplomático.</t>
+          <t>Desde que não sejam colocados em sérios riscos o próprio navio, a sua tripulação ou a sua missão.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Pág 53</t>
+          <t>Pág 51</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1509,18 +1509,18 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>O que a Declaração Universal dos Direitos do Homem estabelece sobre a obrigação dos Estados em conceder asilo?</t>
+          <t>Em que casos o parar e o fundear são permitidos durante a passagem inocente no MT?</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Reconhece o direito de procurar asilo, mas não obriga os Estados a concedê-lo.</t>
+          <t>Se constituírem incidentes comuns de navegação, forem impostos por força maior, ou tiverem por fim prestar auxílio a pessoas, navios ou aeronaves em perigo.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Pág 53</t>
+          <t>Pág 51</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1537,18 +1537,18 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Segundo a Convenção de Caracas, a quem compete classificar a natureza do delito (comum ou político) de um requerente de asilo?</t>
+          <t>A embarcação que demanda porto em emergência fica sujeita a regulamentações locais concernentes a penalidades ou taxas?</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Compete ao país asilante.</t>
+          <t>Não, em geral, não ficará sujeita às regulamentações locais concernentes a penalidades, proibições, serviços ou taxas por tê-lo demandado.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Pág 53</t>
+          <t>Pág 52</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1565,18 +1565,18 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>De acordo com a Convenção de Caracas, navios de guerra em estaleiros para reparo podem constituir recinto de asilo?</t>
+          <t>Segundo a Lei de Segurança do Tráfego Aquaviário (LESTA), sob que condições uma embarcação estrangeira pode ser ordenada a não entrar em um porto brasileiro?</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Não.</t>
+          <t>Se apresentar irregularidades ou condições operacionais precárias que representem ameaça de **danos ao meio ambiente, à tripulação, a terceiros ou à segurança**.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Pág 54</t>
+          <t>Pág 52</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1593,18 +1593,18 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Qual é a restrição imposta aos Comandantes de navios da MB em relação ao oferecimento de asilo a estrangeiros?</t>
+          <t>De acordo com a Convenção de Caracas, o que são **'casos de urgência'** para a concessão de asilo diplomático?</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>São proibidos de convidar, direta ou indiretamente, qualquer refugiado a se asilar no navio.</t>
+          <t>São casos em que o indivíduo é perseguido por autoridades ou multidões e está em perigo de ser privado de sua vida ou liberdade por perseguição política.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Pág 54</t>
+          <t>Pág 53</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1621,18 +1621,18 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Em que caso o Comandante deve expulsar o asilado recolhido ao seu navio?</t>
+          <t>O chamado _________________ é uma forma provisória do _________________, só praticada regularmente na América Latina. É outorgado em legações, navios de guerra, acampamentos ou aeronaves militares a pessoas perseguidas por motivos ou delitos políticos, constituindo uma etapa para o asilo territorial, a consumar-se no solo daquele mesmo país que acolheu provisoriamente o refugiado, ou eventualmente no solo de um terceiro país que o aceite.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Quando este, de má fé, declarou ser perseguido político, sendo crime comum, ou se perturbar a ordem/disciplina de bordo.</t>
+          <t>"asilo diplomático" e "asilo político".</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Pág 54</t>
+          <t>Pág 53</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1649,18 +1649,18 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>No estrangeiro, o Comandante de Força pode se negar a receber um brasileiro que procure refúgio em navios da MB?</t>
+          <t>Cite uma medida que a Lei de Segurança do Tráfego Aquaviário (LESTA) permite ordenar a uma embarcação estrangeira que represente ameaça de danos (documentação ou condições precárias).</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Não, o Comandante não pode se negar a receber qualquer brasileiro que procure refúgio.</t>
+          <t>Não entrar no porto, não sair do porto, sair das águas jurisdicionais, ou arribar em porto nacional.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Pág 55</t>
+          <t>Pág 52</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1677,18 +1677,18 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Se um brasileiro asilado em navio da MB no estrangeiro estiver sendo processado por crime comum, o que deve o Comandante fazer?</t>
+          <t>Em caso de quarentena, navios militares devem permitir a inspeção pelas autoridades sanitárias?</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Satisfazer às requisições da justiça local.</t>
+          <t>Não devem permitir a inspeção, mas devem sujeitar-se às regulamentações e prestar todas as informações solicitadas.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Pág 55</t>
+          <t>Pág 52</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1705,18 +1705,18 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Qual é o procedimento do Comandante de navio da MB para um clandestino estrangeiro indiciado ou condenado por crime no Brasil?</t>
+          <t>Qual sua principal distinção entre asilo territorial e asilo diplomático?</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>O Comandante o conservará a bordo para ser devida e oportunamente julgado.</t>
+          <t>Asilo territorial é a proteção dada por um Estado em seu território a um perseguido político, e não deve ser confundido com o asilo diplomático.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Pág 55</t>
+          <t>Pág 53</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1733,18 +1733,18 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Qual é a regra para material perdido por um Estado soberano nas Águas Jurisdicionais Brasileiras (AJB)?</t>
+          <t>O que a Declaração Universal dos Direitos do Homem estabelece sobre a obrigação dos Estados em conceder asilo?</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Permanece sendo um bem desse Estado até que a titularidade seja formalmente abandonada, renunciada ou transferida por decurso legal de tempo.</t>
+          <t>Reconhece o direito de procurar asilo, mas não obriga os Estados a concedê-lo.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Pág 56</t>
+          <t>Pág 53</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1761,18 +1761,18 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>O Direito Internacional (DI) reconhece o uso da força, em tempo de paz, para proteger bens e pessoas em águas internacionais?</t>
+          <t>Segundo a Convenção de Caracas, a quem compete classificar a natureza do delito (comum ou político) de um requerente de asilo?</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Sim, o uso da força proporcional e adequada é reconhecido para proteger navios, aeronaves, pessoas e suas propriedades submetidos a atos de violência injustificados.</t>
+          <t>Compete ao país asilante.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Pág 56</t>
+          <t>Pág 53</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1789,18 +1789,18 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Quem é o primeiro responsável pela proteção de navios e pessoas estrangeiras dentro de águas interiores, águas arquipelágicas e MT?</t>
+          <t>De acordo com o art. I da Convenção de Caracas, navios de guerra em estaleiros para reparo podem constituir recinto de asilo?</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>O Estado costeiro.</t>
+          <t>Não.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Pág 56</t>
+          <t>Pág 54</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -1817,18 +1817,18 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Exceto em situações de salvaguarda da vida humana, até onde se estende a responsabilidade do Estado costeiro na proteção de navios de outra nacionalidade?</t>
+          <t>Qual é a restrição imposta aos Comandantes de navios da MB em relação ao oferecimento de asilo a estrangeiros?</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Até o limite exterior do seu Mar Territorial (MT).</t>
+          <t>São proibidos de convidar, direta ou indiretamente, qualquer refugiado a se asilar no navio.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Pág 57</t>
+          <t>Pág 54</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -1845,18 +1845,18 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>O Brasil exige consentimento para que exercícios ou manobras militares sejam conduzidos em sua ZEE?</t>
+          <t>Em que caso o Comandante deve expulsar o asilado recolhido ao seu navio?</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Sim, o Brasil entende que exercícios ou manobras militares em sua ZEE só podem ser conduzidos com o seu consentimento.</t>
+          <t>Quando este, de má fé, declarou ser perseguido político, sendo crime comum, ou se perturbar a ordem/disciplina de bordo.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Pág 57</t>
+          <t>Pág 54</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -1873,18 +1873,18 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Que tipos de leis o Estado costeiro pode impor em sua Zona Contígua (ZC)?</t>
+          <t>No estrangeiro, o Comandante de Força pode se negar a receber um brasileiro que procure refúgio em navios da MB?</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Leis alfandegárias, fiscais, sanitárias e de imigração.</t>
+          <t>Não, o Comandante não pode se negar a receber qualquer brasileiro que procure refúgio.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Pág 57</t>
+          <t>Pág 55</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -1901,18 +1901,18 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>O que o instituto da legítima defesa coletiva prevê para navios estrangeiros submetidos à violência não justificada no mar?</t>
+          <t>Se um brasileiro asilado em navio da MB no estrangeiro estiver sendo processado por crime comum, o que deve o Comandante fazer?</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>O uso da força na medida correspondente para proporcionar a proteção necessária.</t>
+          <t>Satisfazer às requisições da justiça local.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Pág 58</t>
+          <t>Pág 55</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -1929,18 +1929,18 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Em alto-mar, quais são as exceções à jurisdição exclusiva do Estado do pavilhão que permitem a aproximação e visita de navios de guerra?</t>
+          <t>Segundo a OGSA, um Comandante de Força no estrangeiro pode se negar a receber a bordo um brasileiro que procure refúgio?</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Suspeita de pirataria, tráfico de escravos, transmissões não autorizadas a partir do alto-mar, falta de nacionalidade, ou se for da mesma nacionalidade que o navio de guerra, mas recusa içar sua bandeira ou esteja arvorando bandeira estrangeira.</t>
+          <t>Não, o Comandante não poderá se negar a receber qualquer brasileiro que procure refúgio nos navios a ele subordinados.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Pág 58</t>
+          <t>Pág 55</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -1957,18 +1957,18 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>O direito de visita se aplica também na ZC e na ZEE?</t>
+          <t>Qual é o procedimento do Comandante de navio da MB para um clandestino estrangeiro indiciado ou condenado por crime no Brasil?</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Sim, para impor a legislação inerente à jurisdição desses espaços.</t>
+          <t>O Comandante o conservará a bordo para ser devida e oportunamente julgado.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Pág 58</t>
+          <t>Pág 55</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -1985,18 +1985,18 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Onde a CNUDM (art. 100) estabelece que todos os Estados devem cooperar no combate à pirataria?</t>
+          <t>Qual é a regra para material perdido por um Estado soberano nas Águas Jurisdicionais Brasileiras (AJB)?</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>No alto-mar ou em qualquer outro lugar que não se encontre sob a jurisdição de algum Estado.</t>
+          <t>Permanece sendo um bem desse Estado até que a titularidade seja formalmente abandonada, renunciada ou transferida por decurso legal de tempo.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Pág 59</t>
+          <t>Pág 56</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2013,18 +2013,18 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Qual é a característica essencial, segundo a CNUDM (art. 101), para que um ato de violência por navio privado seja classificado como pirataria?</t>
+          <t>O Direito Internacional (DI) reconhece o uso da força, em tempo de paz, para proteger bens e pessoas em águas internacionais?</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Deve ser cometido para fins privados.</t>
+          <t>Sim, o uso da força proporcional e adequada é reconhecido para proteger navios, aeronaves, pessoas e suas propriedades submetidos a atos de violência injustificados.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Pág 59</t>
+          <t>Pág 56</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2041,18 +2041,18 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>As ações ilícitas cometidas na ZC e na ZEE são consideradas atos de pirataria sob a luz do DI?</t>
+          <t>Quem é o primeiro responsável pela proteção de navios e pessoas estrangeiras dentro de águas interiores, águas arquipelágicas e MT?</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Sim, por força do art. 58, § 2º da CNUDM.</t>
+          <t>O Estado costeiro.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Pág 59</t>
+          <t>Pág 56</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2069,18 +2069,18 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Atos de violência cometidos em águas interiores ou no Mar Territorial são considerados pirataria?</t>
+          <t>Exceto em situações de salvaguarda da vida humana, até onde se estende a responsabilidade do Estado costeiro na proteção de navios de outra nacionalidade?</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Não, são considerados crimes diversos tratados segundo a jurisdição e a soberania de cada Estado.</t>
+          <t>Até o limite exterior do seu Mar Territorial (MT).</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Pág 60</t>
+          <t>Pág 57</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2097,18 +2097,18 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Por que o Direito Internacional (DI) tende a excluir os atos de terrorismo da definição de pirataria?</t>
+          <t>O Brasil exige consentimento para que exercícios ou manobras militares sejam conduzidos em sua ZEE?</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Porque o interesse prevalente não é o privado, mas sim político.</t>
+          <t>Sim, o Brasil entende que exercícios ou manobras militares em sua ZEE só podem ser conduzidos com o seu consentimento.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Pág 60</t>
+          <t>Pág 57</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2125,18 +2125,18 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Navios de guerra ou aeronaves militares podem ser tratados como piratas?</t>
+          <t>Que tipos de leis o Estado costeiro pode impor em sua Zona Contígua (ZC)?</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Sim, a menos que estejam guarnecidos por piratas ou sendo empregados em ações de pirataria.</t>
+          <t>Leis alfandegárias, fiscais, sanitárias e de imigração.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Pág 60</t>
+          <t>Pág 57</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2153,18 +2153,18 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>A revolta ou amotinamento da tripulação de um navio de guerra constitui, por si só, ato de pirataria?</t>
+          <t>O que o instituto da legítima defesa coletiva prevê para navios estrangeiros submetidos à violência não justificada no mar?</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Não, mas o navio se torna pirata se for utilizado para cometer atos de pirataria subsequentes.</t>
+          <t>O uso da força na medida correspondente para proporcionar a proteção necessária.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Pág 61</t>
+          <t>Pág 58</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2181,18 +2181,18 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Que tipos de navios ou aeronaves podem efetuar o apresamento por pirataria?</t>
+          <t>Segundo o art. 110 da CNUDM, em alto-mar, quais são as exceções à jurisdição exclusiva do Estado do pavilhão que permitem a aproximação e visita de navios de guerra?</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Somente navios de guerra, aeronaves militares, ou outros navios/aeronaves autorizados a serviço de um Estado.</t>
+          <t>Suspeita de pirataria, tráfico de escravos, transmissões não autorizadas a partir do alto-mar, falta de nacionalidade, ou se for da mesma nacionalidade que o navio de guerra, mas recusa içar sua bandeira ou esteja arvorando bandeira estrangeira.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Pág 61</t>
+          <t>Pág 57</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2209,18 +2209,18 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Quando deve cessar a perseguição a um navio ou aeronave pirata iniciada em águas internacionais?</t>
+          <t>O direito de visita se aplica também na ZC e na ZEE?</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>No momento em que buscar refúgio no Mar Territorial (MT), águas arquipelágicas, ou espaço aéreo sobrejacente de outro Estado.</t>
+          <t>Sim, para impor a legislação inerente à jurisdição desses espaços.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Pág 61</t>
+          <t>Pág 58</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2237,18 +2237,18 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Defina Asilo Territorial ou Asilo Político.</t>
+          <t>Onde a CNUDM (art. 100) estabelece que todos os Estados devem cooperar no combate à pirataria?</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>É a proteção dada por um Estado à pessoa cuja vida ou liberdade esteja ameaçada pelas autoridades de seu país por causa de dissidência política; delitos de opinião; crimes que, relacionados à segurança do Estado, não configuram quebra do direito penal comum.</t>
+          <t>No alto-mar ou em qualquer outro lugar que não se encontre sob a jurisdição de algum Estado.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Pág 53</t>
+          <t>Pág 59</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2265,18 +2265,18 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>O Estado solicitado é obrigado a conceder o asilo?</t>
+          <t>Qual é a característica essencial, segundo a CNUDM (art. 101), para que um ato de violência por navio privado seja classificado como pirataria?</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Não.</t>
+          <t>Deve ser cometido para fins privados.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Pág 53</t>
+          <t>Pág 59</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2293,18 +2293,18 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>O direito de asilo pode ser invocado em caso de perseguição motivada legitimamente por delitos comuns?</t>
+          <t>As ações ilícitas cometidas na ZC e na ZEE são consideradas atos de pirataria sob a luz do DI?</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Não, só em casos de crimes que, relacionados à segurança do Estado, não configuram quebra do direito penal comum.</t>
+          <t>Sim, por força do art. 58, § 2º da CNUDM.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Pág 52</t>
+          <t>Pág 59</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2321,18 +2321,18 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>No Brasil, a concessão de asilo político é uma possibilidade prevista pela Constituição e é uma prerrogativa de qual dos 3 Poderes Constituintes?</t>
+          <t>**Situação Hipotética:** Um navio situado a 22MN de um Estado costeiro foi atacado por piratas, que tomaram o navio e sua tripulação e ameaçaram explodí-lo, caso não fossem marcadas eleições em um determinado país. Essa ação pode ser enquadrada como pirataria? Justifique.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Poder Executivo, por meio do Ministério da Justiça.</t>
+          <t>Não. Para que se configure o crime de pirataria, é necessário que o ato tenha sido cometido para fins privados. O DI pretende excluir como pirataria os atos de violência cometidos para fins políticos.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Pág 54</t>
+          <t>Pág 59</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2349,18 +2349,18 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Qual a diferença entre Asilo Político e Asilo Diplomático?</t>
+          <t>Atos de violência cometidos em águas interiores ou no Mar Territorial são considerados pirataria?</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Asilo Diplomático é uma forma provisória do Asilo Político, uma etapa para o Asilo Territorial ao entrar em Navios e aeronaves militares no exterior. Só praticada regularmente na América Latina, pela Convenção de Caracas sobre Asilo Diplomático.</t>
+          <t>Não, são considerados crimes diversos tratados segundo a jurisdição e a soberania de cada Estado.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Pág x</t>
+          <t>Pág 60</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2377,18 +2377,18 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Qual a exceção da Convenção de Caracas sobre Asilo Diplomático?</t>
+          <t>Por que o Direito Internacional (DI) tende a excluir os atos de terrorismo da definição de pirataria?</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Navios de Guerra ou Aeronaves Militares em reparo no exterior não podem constituir recinto de asilo.</t>
+          <t>Porque o interesse prevalente não é o privado, mas sim político.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Pág 53</t>
+          <t>Pág 60</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2405,18 +2405,18 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Em que situações o Comandante pode conceder Asilo Político?</t>
+          <t>Navios de guerra ou aeronaves militares podem ser tratados como piratas?</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Pode conceder por razões humanitárias e desde que solicitado pelo refugiado; Trata-se de indivíduo que solicite asilo e que possa vir a ser ou esteja sendo perseguido por crime ou motivo político ou predominantemente político, ou por crença religiosa.</t>
+          <t>Sim, a menos que estejam guarnecidos por piratas ou sendo empregados em ações de pirataria.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Pág 54</t>
+          <t>Pág 60</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2433,18 +2433,18 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Quais são as duas situações que o Comandante não pode conceder Asilo Político?</t>
+          <t>A revolta ou amotinamento da tripulação de um navio de guerra constitui, por si só, ato de pirataria?</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Pessoas perseguidas ou condenadas por delitos comuns; soldados ou marinheiros desertores.</t>
+          <t>Não, mas o navio se torna pirata se for utilizado para cometer atos de pirataria subsequentes.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Pág 54</t>
+          <t>Pág 61</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2461,18 +2461,18 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Quais as medidas que o Comandante que conceda Asilo Político deve adotar?</t>
+          <t>Que tipos de navios ou aeronaves podem efetuar o apresamento por pirataria?</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Comunicar ao seu superior e ao representante do Ministério das Relações Exteriores do Estado territorial, ou à autoridade administrativa do lugar, se ocorrer fora da Capital.</t>
+          <t>Somente navios de guerra, aeronaves militares, ou outros navios/aeronaves autorizados a serviço de um Estado.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Pág 54</t>
+          <t>Pág 61</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2489,18 +2489,18 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>O Comandante só pode expulsar o asilado recolhido ao seu navio em duas situações, baseadas nas ações do asilado.</t>
+          <t>Quando deve cessar a perseguição a um navio ou aeronave pirata iniciada em águas internacionais?</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Tiver declarado de má fé ser perseguido político ou religioso, e se verificar depois que é perseguido por crime comum; Contribuir para perturbar a ordem e disciplina a bordo.</t>
+          <t>No momento em que buscar refúgio no Mar Territorial (MT), águas arquipelágicas, ou espaço aéreo sobrejacente de outro Estado.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Pág 54</t>
+          <t>Pág 61</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2517,18 +2517,18 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Quando no exterior, o Comandante procederá com a entrega do asilado apenas à autoridade do país do asilado, em duas situações previstas. Cite quais são.</t>
+          <t>Defina Asilo Territorial ou Asilo Político.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Quando for desertor simples de força armada estrangeira. Quando ordenado pelo governo brasileiro;</t>
+          <t>É a proteção dada por um Estado à pessoa cuja vida ou liberdade esteja ameaçada pelas autoridades de seu país por causa de dissidência política; delitos de opinião; crimes que, relacionados à segurança do Estado, não configuram quebra do direito penal comum.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Pág 54</t>
+          <t>Pág 53</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2545,18 +2545,18 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Quando em território brasileiro, o asilado deverá ser autoridade competente de qual órgão?</t>
+          <t>O Estado solicitado é obrigado a conceder o asilo?</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Ministério da Justiça.</t>
+          <t>Não.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Pág x</t>
+          <t>Pág 53</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2573,18 +2573,18 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>O Comandante pode expulsar ou entregar Asilado recebido a bordo por requisição de Agente Diplomático ou Consular brasileiro?</t>
+          <t>O direito de asilo pode ser invocado em caso de perseguição motivada legitimamente por delitos comuns?</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Só com consentimento desse Agente ou autoridade superior a ele, exceto se sua presença a bordo for prejudicial à ordem e a disciplina do navio, caso em que o referido Agente será previamente avisado.</t>
+          <t>Não, só em casos de crimes que, relacionados à segurança do Estado, não configuram quebra do direito penal comum.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Pág 54</t>
+          <t>Pág 52</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2601,12 +2601,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Quais as duas situações em que o Comandante pode entregar ou expulsar asilado recebido a bordo por requisição de Agente Diplomático ou Consular brasileiro?</t>
+          <t>No Brasil, a concessão de asilo político é uma possibilidade prevista pela Constituição e é uma prerrogativa de qual dos 3 Poderes Constituintes?</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Se a presença do asilado for prejudicial para a ordem e disciplina a bordo; O Agente deverá ser previamente avisado.</t>
+          <t>Poder Executivo, por meio do Ministério da Justiça.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -2629,18 +2629,18 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>No estrangeiro, cite o procedimento adotado pelo Comandante de Força sobre proteção aos brasileiros contra quaisquer violências de que estejam ameaçados.</t>
+          <t>Qual a diferença entre Asilo Político e Asilo Diplomático?</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Quando solicitado, protegerá os brasileiros contra violências de que estejam ameaçados, procedendo de acordo com as circun- stâncias e com a legislação em vigor.</t>
+          <t>Asilo Diplomático é uma forma provisória do Asilo Político, uma etapa para o Asilo Territorial ao entrar em Navios e aeronaves militares no exterior. Só praticada regularmente na América Latina, pela Convenção de Caracas sobre Asilo Diplomático.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Pág 55</t>
+          <t>Pág x</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2657,18 +2657,18 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Cite o procedimento a ser adotado no caso de clandestino a bordo, se o mesmo for brasileiro.</t>
+          <t>Qual a exceção da Convenção de Caracas sobre Asilo Diplomático?</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Se em porto brasileiro, entregar à Autoridade local competente; Se em porto no exterior, entregar ao Agente Consular Brasileiro.</t>
+          <t>Navios de Guerra ou Aeronaves Militares em reparo no exterior não podem constituir recinto de asilo.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Pág 55</t>
+          <t>Pág 53</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -2685,18 +2685,18 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Cite o procedimento a ser adotado no caso de clandestino a bordo, se o mesmo for estrangeiro.</t>
+          <t>Em que situações o Comandante pode conceder Asilo Político?</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Se em porto brasileiro, entregar à Autoridade local competente; Se em porto no exterior, entregar ao Agente Consular do país do clandestino.</t>
+          <t>Pode conceder por razões humanitárias e desde que solicitado pelo refugiado; Trata-se de indivíduo que solicite asilo e que possa vir a ser ou esteja sendo perseguido por crime ou motivo político ou predominantemente político, ou por crença religiosa.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Pág 55</t>
+          <t>Pág 54</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -2713,18 +2713,18 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Cite o procedimento a ser adotado no caso de clandestino a bordo, se o mesmo for estrangeiro indiciado ou condenado por crime no território brasileiro</t>
+          <t>Quais são as duas situações que o Comandante não pode conceder Asilo Político?</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Será conservado a bordo para ser julgado pelos tribunais brasileiros ou cumprir sentença já proferida.</t>
+          <t>Pessoas perseguidas ou condenadas por delitos comuns; soldados ou marinheiros desertores.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Pág 55</t>
+          <t>Pág 54</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -2741,18 +2741,18 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Cite o procedimento a ser adotado no caso de clandestino a bordo, se o mesmo tiver Status de Refugiado.</t>
+          <t>Quais as medidas que o Comandante que conceda Asilo Político deve adotar?</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Será conservado a bordo para seguir o processo de extradição</t>
+          <t>Comunicar ao seu superior e ao representante do Ministério das Relações Exteriores do Estado territorial, ou à autoridade administrativa do lugar, se ocorrer fora da Capital.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Pág 55</t>
+          <t>Pág 54</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -2769,18 +2769,18 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>É direito de um Estado de decretar quarentena para um porto, área ou navio, quando necessário?</t>
+          <t>O Comandante só pode expulsar o asilado recolhido ao seu navio em duas situações, baseadas nas ações do asilado.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Sim.</t>
+          <t>Tiver declarado de má fé ser perseguido político ou religioso, e se verificar depois que é perseguido por crime comum; Contribuir para perturbar a ordem e disciplina a bordo.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Pág 49</t>
+          <t>Pág 54</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -2797,18 +2797,18 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Qual deve ser a postura de um Comandante de navio ou aeronave militar em relação à Quarentena?</t>
+          <t>Quando no exterior, o Comandante procederá com a entrega do asilado apenas à autoridade do país do asilado, em duas situações previstas. Cite quais são.</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Respeitar regulamentações e restrições impostas; Não devem permitir que sejam inspecionados, mas devem prestar assistência às autoridades sanitárias e informações solicitadas, desde que não comprometa a segurança e sigilo da missão.</t>
+          <t>Quando for desertor simples de força armada estrangeira. Quando ordenado pelo governo brasileiro;</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Pág 52</t>
+          <t>Pág 54</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -2825,18 +2825,18 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Em qual situação o Comandante pode requerer dispensa das restrições decorrentes de uma quarentena?</t>
+          <t>Quando em território brasileiro, o asilado deverá ser autoridade competente de qual órgão?</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Pode requerer à Autoridade Portuária dispensa às restrições de uma quarentena quando esta estiver prevista no Roteiro de um porto.</t>
+          <t>Ministério da Justiça.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Pág 52</t>
+          <t>Pág x</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -2853,21 +2853,329 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Cite a situação em que está prevista a proteção de navios de outra nacionalidade.</t>
+          <t>O Comandante pode expulsar ou entregar Asilado recebido a bordo por requisição de Agente Diplomático ou Consular brasileiro?</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Legítima defesa coletiva contra violência não justificada no mar, com o consentimento do Estado do navio; Não precisa aguardar o consentimento em caso de ação imediata para salvaguarda da vida humana.</t>
+          <t>Só com consentimento desse Agente ou autoridade superior a ele, exceto se sua presença a bordo for prejudicial à ordem e a disciplina do navio, caso em que o referido Agente será previamente avisado.</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
+          <t>Pág 54</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Cap. 3 - A proteção de pessoas e bens no mar e a imposição da legislação</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Quais as duas situações em que o Comandante pode entregar ou expulsar asilado recebido a bordo por requisição de Agente Diplomático ou Consular brasileiro?</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Se a presença do asilado for prejudicial para a ordem e disciplina a bordo; O Agente deverá ser previamente avisado.</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Pág 54</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Cap. 3 - A proteção de pessoas e bens no mar e a imposição da legislação</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>No estrangeiro, cite o procedimento adotado pelo Comandante de Força sobre proteção aos brasileiros contra quaisquer violências de que estejam ameaçados.</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Quando solicitado, protegerá os brasileiros contra violências de que estejam ameaçados, procedendo de acordo com as circun- stâncias e com a legislação em vigor.</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Pág 55</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Cap. 3 - A proteção de pessoas e bens no mar e a imposição da legislação</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Cite o procedimento a ser adotado no caso de clandestino a bordo, se o mesmo for brasileiro.</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Se em porto brasileiro, entregar à Autoridade local competente; Se em porto no exterior, entregar ao Agente Consular Brasileiro.</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Pág 55</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Cap. 3 - A proteção de pessoas e bens no mar e a imposição da legislação</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Cite o procedimento a ser adotado no caso de clandestino a bordo, se o mesmo for estrangeiro.</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Se em porto brasileiro, entregar à Autoridade local competente; Se em porto no exterior, entregar ao Agente Consular do país do clandestino.</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Pág 55</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Cap. 3 - A proteção de pessoas e bens no mar e a imposição da legislação</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Cite o procedimento a ser adotado no caso de clandestino a bordo, se o mesmo for estrangeiro indiciado ou condenado por crime no território brasileiro</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Será conservado a bordo para ser julgado pelos tribunais brasileiros ou cumprir sentença já proferida.</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Pág 55</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Cap. 3 - A proteção de pessoas e bens no mar e a imposição da legislação</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Cite o procedimento a ser adotado no caso de clandestino a bordo, se o mesmo tiver Status de Refugiado.</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Será conservado a bordo para seguir o processo de extradição</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Pág 55</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Cap. 3 - A proteção de pessoas e bens no mar e a imposição da legislação</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>É direito de um Estado de decretar quarentena para um porto, área ou navio, quando necessário?</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Sim.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Pág 49</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Cap. 3 - A proteção de pessoas e bens no mar e a imposição da legislação</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Qual deve ser a postura de um Comandante de navio ou aeronave militar em relação à Quarentena?</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Respeitar regulamentações e restrições impostas; Não devem permitir que sejam inspecionados, mas devem prestar assistência às autoridades sanitárias e informações solicitadas, desde que não comprometa a segurança e sigilo da missão.</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Pág 52</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Cap. 3 - A proteção de pessoas e bens no mar e a imposição da legislação</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Em qual situação o Comandante pode requerer dispensa das restrições decorrentes de uma quarentena?</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Pode requerer à Autoridade Portuária dispensa às restrições de uma quarentena quando esta estiver prevista no Roteiro de um porto.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Pág 52</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Cap. 3 - A proteção de pessoas e bens no mar e a imposição da legislação</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Cite a situação em que está prevista a proteção de navios de outra nacionalidade.</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Legítima defesa coletiva contra violência não justificada no mar, com o consentimento do Estado do navio; Não precisa aguardar o consentimento em caso de ação imediata para salvaguarda da vida humana.</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
           <t>Pág 57</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Cap. 3 - A proteção de pessoas e bens no mar e a imposição da legislação</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Um navio que navega sob duas ou mais bandeiras pode ser considerado como _____.</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>"assemelhado a um navio sem nacionalidade".</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Pág 65</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
         <is>
           <t>Cap. 3 - A proteção de pessoas e bens no mar e a imposição da legislação</t>
         </is>
